--- a/biology/Mycologie/Calvatia_utriformis/Calvatia_utriformis.xlsx
+++ b/biology/Mycologie/Calvatia_utriformis/Calvatia_utriformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycoperdon utriforme, la Vesse-de-loup ciselée ou le lycoperdon utriforme est l'une des nombreuses espèces de vesses-de-loup.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi ses nombreux synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ses nombreux synonymes :
 Calvatia utriformis (Bull.) Jaap
 Handkea utriformis (Bull.) Kreisel
 Étymologie du nom d'espèce utriforme : en forme d'outre.
@@ -545,15 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon prend d'abord la forme d'une petite outre blanche qui brunit peu à peu à maturité.
 Le sporophore est pyrifome ou parfois globuleux, avec une sorte de pied radicant, vigoureux et en fuseau.
 Couleur : d'un blanc pur, verruqueux, puis gris ou tacheté de brun, anguleux lorsque les verrues sont tombées, s'effondrant dans la partie supérieure.
 La glèbe (partie fertile) est d'abord blanc-olivâtre, puis brunâtre et enfin devenant mûre, elle tombe en poussière.
 La chair non fertile du pied subsiste longtemps sur place.
-Dimensions
-Jusqu'à 15 cm de hauteur et 10 cm de largeur, voire plus.
 </t>
         </is>
       </c>
@@ -579,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à 15 cm de hauteur et 10 cm de largeur, voire plus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calvatia_utriformis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calvatia_utriformis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Assez rare, se trouve dans les champs, les prés.
 Menaces :
@@ -591,31 +644,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Calvatia_utriformis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calvatia_utriformis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est considéré comme comestible à l'état jeune, mais de faible qualité culinaire.
 </t>
